--- a/Лист Microsoft Excel (2).xlsx
+++ b/Лист Microsoft Excel (2).xlsx
@@ -178,6 +178,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -188,13 +194,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,11 +494,11 @@
       <c r="A1">
         <v>53</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="7">
         <v>6</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -506,67 +506,67 @@
       <c r="A2">
         <v>52</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="9"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>51</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>49</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>48</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>47</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>46</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -574,51 +574,51 @@
       <c r="A10">
         <v>44</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>43</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>42</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>40</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>39</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>4</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -626,173 +626,173 @@
       <c r="A16">
         <v>38</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>37</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>36</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>35</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>34</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>33</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="7">
         <v>3</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>29</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>28</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="7">
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>21</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>19</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
@@ -804,7 +804,7 @@
       <c r="A37">
         <v>17</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="A38">
         <v>16</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="A39">
         <v>15</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="7">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -842,7 +842,7 @@
       <c r="A40">
         <v>14</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="A41">
         <v>13</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="A42">
         <v>12</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="A43">
         <v>11</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="A44">
         <v>10</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="A45">
         <v>9</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="A46">
         <v>8</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="3" t="s">
         <v>20</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="A47">
         <v>7</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="7">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -940,7 +940,7 @@
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="2" t="s">
         <v>22</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="A49">
         <v>5</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="2" t="s">
         <v>23</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="A50">
         <v>4</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="A51">
         <v>3</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="2" t="s">
         <v>3</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="A52">
         <v>2</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
@@ -1000,7 +1000,7 @@
       <c r="A53">
         <v>1</v>
       </c>
-      <c r="B53" s="6"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="2" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="A54">
         <v>0</v>
       </c>
-      <c r="B54" s="7"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="3" t="s">
         <v>0</v>
       </c>
@@ -1022,6 +1022,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="B15:B22"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="D33:D35"/>
@@ -1031,13 +1036,9 @@
     <mergeCell ref="D15:D20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="B15:B22"/>
     <mergeCell ref="B7:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Лист Microsoft Excel (2).xlsx
+++ b/Лист Microsoft Excel (2).xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>SATOE ISHII, CODE: "Soba"</t>
   </si>
@@ -91,6 +92,126 @@
   </si>
   <si>
     <t>bio scanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas vs. Boston </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iAAEIGbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston vs. Chicago </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AEECBGcC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas vs. Detroit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> icB6JaDb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seattle vs. Toronto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3cC6JbDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleveland vs. Kansas City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0cA7IKDa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota vs. Cleveland </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lcB5IKDa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego vs. Montreal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gAAEGEbk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York vs. New York </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAleBHbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco vs. Texas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fclBGiBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego vs. Cleveland </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gcA7HKDg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York vs. Atlanta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hAAEHFbh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakland vs. New York </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jcA2FHD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pittsburg vs. San Francisco </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fAAEFDb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA vs. Philadelphia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eAAEECb5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston vs. Boston </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ccA7EGD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milwaukee vs. Detroit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acA7HJD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York vs. Cincinnati </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dcA2FHD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago vs. Chicago </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2AAGGAbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago vs. Atlanta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2c36Ahbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California vs. Baltimore </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kcB3GIDi</t>
   </si>
 </sst>
 </file>
@@ -178,12 +299,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -192,6 +307,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -494,7 +615,7 @@
       <c r="A1">
         <v>53</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="5">
         <v>6</v>
       </c>
       <c r="C1" s="1"/>
@@ -506,7 +627,7 @@
       <c r="A2">
         <v>52</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2"/>
       <c r="D2" s="10"/>
     </row>
@@ -514,7 +635,7 @@
       <c r="A3">
         <v>51</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="10"/>
     </row>
@@ -522,7 +643,7 @@
       <c r="A4">
         <v>50</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="10"/>
     </row>
@@ -530,7 +651,7 @@
       <c r="A5">
         <v>49</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="10"/>
     </row>
@@ -538,7 +659,7 @@
       <c r="A6">
         <v>48</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="10"/>
     </row>
@@ -546,7 +667,7 @@
       <c r="A7">
         <v>47</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="1"/>
@@ -556,7 +677,7 @@
       <c r="A8">
         <v>46</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2"/>
       <c r="D8" s="10"/>
     </row>
@@ -564,7 +685,7 @@
       <c r="A9">
         <v>45</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="10" t="s">
         <v>7</v>
@@ -574,7 +695,7 @@
       <c r="A10">
         <v>44</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2"/>
       <c r="D10" s="10"/>
     </row>
@@ -582,7 +703,7 @@
       <c r="A11">
         <v>43</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2"/>
       <c r="D11" s="10"/>
     </row>
@@ -590,7 +711,7 @@
       <c r="A12">
         <v>42</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="2"/>
       <c r="D12" s="10"/>
     </row>
@@ -598,7 +719,7 @@
       <c r="A13">
         <v>41</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2"/>
       <c r="D13" s="10"/>
     </row>
@@ -606,7 +727,7 @@
       <c r="A14">
         <v>40</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
     </row>
@@ -614,7 +735,7 @@
       <c r="A15">
         <v>39</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>4</v>
       </c>
       <c r="C15" s="1"/>
@@ -626,7 +747,7 @@
       <c r="A16">
         <v>38</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2"/>
       <c r="D16" s="10"/>
     </row>
@@ -634,7 +755,7 @@
       <c r="A17">
         <v>37</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2"/>
       <c r="D17" s="10"/>
     </row>
@@ -642,7 +763,7 @@
       <c r="A18">
         <v>36</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="2"/>
       <c r="D18" s="10"/>
     </row>
@@ -650,7 +771,7 @@
       <c r="A19">
         <v>35</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="10"/>
     </row>
@@ -658,7 +779,7 @@
       <c r="A20">
         <v>34</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="2"/>
       <c r="D20" s="10"/>
     </row>
@@ -666,7 +787,7 @@
       <c r="A21">
         <v>33</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="2"/>
       <c r="D21" s="10"/>
     </row>
@@ -674,7 +795,7 @@
       <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="10"/>
     </row>
@@ -682,7 +803,7 @@
       <c r="A23">
         <v>31</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>3</v>
       </c>
       <c r="C23" s="1"/>
@@ -692,107 +813,107 @@
       <c r="A24">
         <v>30</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>29</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>28</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>21</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>19</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
@@ -804,7 +925,7 @@
       <c r="A37">
         <v>17</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
@@ -816,7 +937,7 @@
       <c r="A38">
         <v>16</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
@@ -828,7 +949,7 @@
       <c r="A39">
         <v>15</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -842,7 +963,7 @@
       <c r="A40">
         <v>14</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
@@ -854,7 +975,7 @@
       <c r="A41">
         <v>13</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
@@ -866,7 +987,7 @@
       <c r="A42">
         <v>12</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
@@ -878,7 +999,7 @@
       <c r="A43">
         <v>11</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
@@ -890,7 +1011,7 @@
       <c r="A44">
         <v>10</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
@@ -902,7 +1023,7 @@
       <c r="A45">
         <v>9</v>
       </c>
-      <c r="B45" s="8"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
@@ -914,7 +1035,7 @@
       <c r="A46">
         <v>8</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="3" t="s">
         <v>20</v>
       </c>
@@ -926,7 +1047,7 @@
       <c r="A47">
         <v>7</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="5">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -940,7 +1061,7 @@
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
         <v>22</v>
       </c>
@@ -952,7 +1073,7 @@
       <c r="A49">
         <v>5</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
         <v>23</v>
       </c>
@@ -964,7 +1085,7 @@
       <c r="A50">
         <v>4</v>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
@@ -976,7 +1097,7 @@
       <c r="A51">
         <v>3</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="2" t="s">
         <v>3</v>
       </c>
@@ -988,7 +1109,7 @@
       <c r="A52">
         <v>2</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
@@ -1000,7 +1121,7 @@
       <c r="A53">
         <v>1</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1133,7 @@
       <c r="A54">
         <v>0</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="3" t="s">
         <v>0</v>
       </c>
@@ -1022,11 +1143,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="B15:B22"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="D33:D35"/>
@@ -1037,8 +1153,195 @@
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="B15:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B20">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>